--- a/docs/excelPlayground/TEST.xlsx
+++ b/docs/excelPlayground/TEST.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LG4000\Desktop\comms\docs\excelPlayground\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13929D63-6389-4D85-90E1-2331D6565DD3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{949B53A6-B671-4395-AC60-2624592A9D9A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{D76963E8-864B-457D-9DF5-20326BDCEA33}"/>
+    <workbookView xWindow="0" yWindow="2280" windowWidth="19200" windowHeight="7640" activeTab="1" xr2:uid="{D76963E8-864B-457D-9DF5-20326BDCEA33}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -792,8 +792,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72F6C0FE-C9D2-4B77-A5CF-E298AC22F6EE}">
   <dimension ref="A1:Y4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="96" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+    <sheetView tabSelected="1" topLeftCell="U1" zoomScale="96" workbookViewId="0">
+      <selection activeCell="X13" sqref="X13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
